--- a/biology/Histoire de la zoologie et de la botanique/Paul_Becquerel/Paul_Becquerel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Becquerel/Paul_Becquerel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Becquerel est un biologiste français, né le 14 avril 1879 à Paris et mort le 22 juin 1955 à Évian (Haute-Savoie)[1]. Il était physiologiste et spécialiste des végétaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Becquerel est un biologiste français, né le 14 avril 1879 à Paris et mort le 22 juin 1955 à Évian (Haute-Savoie). Il était physiologiste et spécialiste des végétaux.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Becquerel était le fils de l'agriculteur André Paul Becquerel (1856-1904) et le neveu du physicien Henri Becquerel (1852-1908), découvreur de la radioactivité naturelle. Son grand-père était le physicien Edmond Becquerel (1820-1891), découvreur de l'effet photovoltaïque. 
-Après des études à la Faculté des sciences de Paris et une thèse de doctorat en biologie soutenue en 1907, Paul a été professeur de botanique à la Faculté des sciences de Poitiers, puis directeur de la station de biologie végétale de la Faculté des sciences de Poitiers. Il était membre correspondant de l'Institut de France pour la section de botanique[2]. 
+Après des études à la Faculté des sciences de Paris et une thèse de doctorat en biologie soutenue en 1907, Paul a été professeur de botanique à la Faculté des sciences de Poitiers, puis directeur de la station de biologie végétale de la Faculté des sciences de Poitiers. Il était membre correspondant de l'Institut de France pour la section de botanique. 
 Ses principaux travaux en biologie et en physiologie ont été dirigés plus particulièrement sur l'étude de la vie latente des graines, la suspension de leur vie, leur reviviscence et leur faculté germinative. Il a étudié la radioactivité des plantes, a effectué de nombreuses recherches sur la vie des plantes à une température approchant du zéro absolu, et a découvert l'action des basses températures, de la déshydratation et du vide sur la suspension de la vie. 
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur[Quand ?]
  Officier de l'Instruction publique[Quand ?]</t>
@@ -575,7 +591,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1898-1903: Études à l'Université de Paris.
 1903: Licencié ès sciences naturelles.
@@ -614,7 +632,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'Homme, fils de la terre et du ciel, préface de Paul Becquerel, 1956.
 Causeries radiodiffusées sur les sciences humaines, avec Paul Rivet et Henri Lévy-Bruhl, Paris, Union rationaliste, 1953.
@@ -635,8 +655,8 @@
 La suspension de la vie des graines dans le vide à la température de l'hélium liquide, 1925.
 La vie terrestre provient-elle d'un autre monde?, Paris, Société astronomique de France, 1924.
 Vie et conscience, l'immortalité ?, étude de vulgarisation scientifique, préface de Paul Becquerel, lauréat de l'Institut, 1921.
-Latent life: its nature and its relations to certain theories of contemporary biology, Washington, 1915[3].
-Recherches sur la vie latente des graines, thèse de doctorat en biologie, Faculté des sciences de Paris, Masson, 1907[4].</t>
+Latent life: its nature and its relations to certain theories of contemporary biology, Washington, 1915.
+Recherches sur la vie latente des graines, thèse de doctorat en biologie, Faculté des sciences de Paris, Masson, 1907.</t>
         </is>
       </c>
     </row>
